--- a/CashFlow/KHC_cashflow.xlsx
+++ b/CashFlow/KHC_cashflow.xlsx
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>3349000000.0</v>
+        <v>3350000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3274000000.0</v>
@@ -486,7 +486,7 @@
         <v>3227000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1298000000.0</v>
+        <v>1297000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1164000000.0</v>
@@ -3336,7 +3336,7 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>775000000.0</v>
+        <v>774000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>447000000.0</v>
@@ -3348,7 +3348,7 @@
         <v>630000000.0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>-486000000.0</v>
+        <v>-485000000.0</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>-233000000.0</v>
